--- a/data/values.xlsx
+++ b/data/values.xlsx
@@ -2,95 +2,80 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
-  <si>
-    <t>Хайдбоев Санжарбек Жумабоевич 15.11.1985йилда туғилган Сўх тумани Себзор МФЙ</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+  <si>
+    <t>Ибрагимов Элёр Муратович 18.09.1989йилда туғилган Қўқон шаҳар А.Навоий мавзеси 78/16</t>
   </si>
   <si>
     <t>МЖтК59</t>
   </si>
   <si>
-    <t>Сух туман суди5 сутка</t>
-  </si>
-  <si>
-    <t>3-1516-2401/512</t>
-  </si>
-  <si>
-    <t>Додохонов Мехрож Михидинзода 11.04.2002йилда туғилган Сўх тумани Чумоқча МФЙ</t>
-  </si>
-  <si>
-    <t>МЖтК183</t>
-  </si>
-  <si>
-    <t>Сух туман суди7 сутка</t>
-  </si>
-  <si>
-    <t>3-1516-2401/511</t>
-  </si>
-  <si>
-    <t>Хамраев Ўктамжон Юсубжонович 15.12.1985йилда туғилган Данғара тумани Тумор МФЙ</t>
-  </si>
-  <si>
-    <t>МЖтК206</t>
-  </si>
-  <si>
-    <t>Данғара туман суди15 сутка</t>
-  </si>
-  <si>
-    <t>3-1509-2401/1518</t>
-  </si>
-  <si>
-    <t>Шомуродов Ғофурали Худойназарович 13.12.1967йилда туғилган Данғара тумани Истиқлол МФЙ</t>
-  </si>
-  <si>
-    <t>3-1509-2401/1517</t>
-  </si>
-  <si>
-    <t>Абдуғофоров Мухаммадали Турсунович 19.01.1976йилда туғилган Данғара тумани Катта минглар МФЙ</t>
-  </si>
-  <si>
-    <t>МЖтК187</t>
-  </si>
-  <si>
-    <t>Данғара туман суди7 сутка</t>
-  </si>
-  <si>
-    <t>3-1509-2401/1520</t>
-  </si>
-  <si>
-    <t>№</t>
-  </si>
-  <si>
-    <t>Ф.И.Ш</t>
-  </si>
-  <si>
-    <t>моддаси</t>
-  </si>
-  <si>
-    <t>Тумани</t>
-  </si>
-  <si>
-    <t>келиб тушган</t>
-  </si>
-  <si>
-    <t>жаримаси</t>
-  </si>
-  <si>
-    <t>қарор рақами</t>
+    <t>Қўқон шаҳар суди5 сутка</t>
+  </si>
+  <si>
+    <t>3-1503-2403/3967</t>
+  </si>
+  <si>
+    <t>Хамидов Улуғбек Шухратович 11.04.1979йилда туғилган Қўқон шаҳар Х.Тўра кўчаси 6-уй</t>
+  </si>
+  <si>
+    <t>МЖтК183,194</t>
+  </si>
+  <si>
+    <t>Қўқон шаҳар суди3 сутка</t>
+  </si>
+  <si>
+    <t>3-1503-2405/3957</t>
+  </si>
+  <si>
+    <t>Қосимов Толибжон Маликжон ўғли 29.11.1993йилда туғилган Данғара тумани Г.Узоқов 16-уй</t>
+  </si>
+  <si>
+    <t>МЖтК56</t>
+  </si>
+  <si>
+    <t>3-1503-2402/3947</t>
+  </si>
+  <si>
+    <t>Муминов Ойбек Джалолович 23.03.1977йилда туғилган Қўқон шаҳар Данғара кўчаси 26-уй</t>
+  </si>
+  <si>
+    <t>МЖтК47</t>
+  </si>
+  <si>
+    <t>Қўқон шаҳар суди15 сутка</t>
+  </si>
+  <si>
+    <t>3-1503-2405/3953</t>
+  </si>
+  <si>
+    <t>Тусматов Уткир Рашидхонович 02.02.1987йилда туғилган Қўқон шаҳар К.Мирза кўчаси 20-уй</t>
+  </si>
+  <si>
+    <t>МЖтК183,187,194</t>
+  </si>
+  <si>
+    <t>3-1503-2405/3964</t>
+  </si>
+  <si>
+    <t>Ботиров Бархаётжон Бахромжон ўғли 10.12.1999йилда туғилган Қўқон шаҳар Янги хаёт кўчаси 29-уй</t>
+  </si>
+  <si>
+    <t>3-1503-2405/3954</t>
   </si>
 </sst>
 </file>
@@ -103,15 +88,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
@@ -136,21 +120,15 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -173,38 +151,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -503,156 +498,156 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5">
+        <v>45512</v>
+      </c>
+      <c r="F1" s="6">
+        <v>255000</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5">
+        <v>45512</v>
+      </c>
+      <c r="F2" s="6">
+        <v>153000</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45512</v>
+      </c>
+      <c r="F3" s="6">
+        <v>153000</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5">
+        <v>45512</v>
+      </c>
+      <c r="F4" s="6">
+        <v>765000</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5">
+        <v>45512</v>
+      </c>
+      <c r="F5" s="6">
+        <v>153000</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="5">
+        <v>45512</v>
+      </c>
+      <c r="F6" s="6">
+        <v>153000</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4">
-        <v>45512</v>
-      </c>
-      <c r="F2" s="5">
-        <v>255000</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="4">
-        <v>45512</v>
-      </c>
-      <c r="F3" s="5">
-        <v>357000</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="4">
-        <v>45512</v>
-      </c>
-      <c r="F4" s="5">
-        <v>765000</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4">
-        <v>45512</v>
-      </c>
-      <c r="F5" s="5">
-        <v>765000</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="4">
-        <v>45512</v>
-      </c>
-      <c r="F6" s="5">
-        <v>357000</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/data/values.xlsx
+++ b/data/values.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="179">
   <si>
     <t>Ибрагимов Элёр Муратович 18.09.1989йилда туғилган Қўқон шаҳар А.Навоий мавзеси 78/16</t>
   </si>
@@ -76,13 +76,490 @@
   </si>
   <si>
     <t>3-1503-2405/3954</t>
+  </si>
+  <si>
+    <t>Муминов Бахтиёр Меликузиевич 03.10.1973 йилда туғилган Қўқон шаҳар А.Яссавий кўчаси 2а-уй 6-хона</t>
+  </si>
+  <si>
+    <t>МЖтК187м 2қ</t>
+  </si>
+  <si>
+    <t>3-1503-2403/3952</t>
+  </si>
+  <si>
+    <t>Хакимжанов Исроил Усманович 26.07.1976 йилда туғилган Қўқон шаҳар А.Т.Хўқандий мавзеси 90/39</t>
+  </si>
+  <si>
+    <t>3-1503-2405/3965</t>
+  </si>
+  <si>
+    <t>Акрамов Алишер Ахмаджон ўғли 27.11.1992 йилда туғилган Бувайда тумани Дехқонобод МФЙ</t>
+  </si>
+  <si>
+    <t>Бувайда туман суди15 сутка</t>
+  </si>
+  <si>
+    <t>3-1508-2401/1868</t>
+  </si>
+  <si>
+    <t>Усмонов Равшан Матвалиевич 09.04.1987йилда туғилган Учкўприк тумани Пучуғой МФЙ</t>
+  </si>
+  <si>
+    <t>Учкўприк туман суди15 сутка</t>
+  </si>
+  <si>
+    <t>3-1518-2402/2058</t>
+  </si>
+  <si>
+    <t>Султонов Шукуржон Ўсарович 19.08.1983йилда туғилган Учкўприк тумани Собир қишлоқ</t>
+  </si>
+  <si>
+    <t>3-1518-2402/2052</t>
+  </si>
+  <si>
+    <t>Хайдбоев Санжарбек Жумабоевич 15.11.1985йилда туғилган Сўх тумани Себзор МФЙ</t>
+  </si>
+  <si>
+    <t>Сух туман суди5 сутка</t>
+  </si>
+  <si>
+    <t>3-1516-2401/512</t>
+  </si>
+  <si>
+    <t>Додохонов Мехрож Михидинзода 11.04.2002йилда туғилган Сўх тумани Чумоқча МФЙ</t>
+  </si>
+  <si>
+    <t>МЖтК183</t>
+  </si>
+  <si>
+    <t>Сух туман суди7 сутка</t>
+  </si>
+  <si>
+    <t>3-1516-2401/511</t>
+  </si>
+  <si>
+    <t>Хамраев Ўктамжон Юсубжонович 15.12.1985йилда туғилган Данғара тумани Тумор МФЙ</t>
+  </si>
+  <si>
+    <t>МЖтК206</t>
+  </si>
+  <si>
+    <t>Данғара туман суди15 сутка</t>
+  </si>
+  <si>
+    <t>3-1509-2401/1518</t>
+  </si>
+  <si>
+    <t>Шомуродов Ғофурали Худойназарович 13.12.1967йилда туғилган Данғара тумани Истиқлол МФЙ</t>
+  </si>
+  <si>
+    <t>3-1509-2401/1517</t>
+  </si>
+  <si>
+    <t>Абдуғофоров Мухаммадали Турсунович 19.01.1976йилда туғилган Данғара тумани Катта минглар МФЙ</t>
+  </si>
+  <si>
+    <t>МЖтК187</t>
+  </si>
+  <si>
+    <t>Данғара туман суди7 сутка</t>
+  </si>
+  <si>
+    <t>3-1509-2401/1520</t>
+  </si>
+  <si>
+    <t>Эрматов Бахтиёр Узакович 29.10.1981йилда туғилган Данғара тумани Рахматилло МФй</t>
+  </si>
+  <si>
+    <t>МЖтК194</t>
+  </si>
+  <si>
+    <t>Данғара туман суди10 сутка</t>
+  </si>
+  <si>
+    <t>3-1509-2401/1519</t>
+  </si>
+  <si>
+    <t>Абдушукров Шохрухмирзо Шавкат угли 15.09.1995йилда туғилган Фаргона шахар Туролн кучаси 28/4</t>
+  </si>
+  <si>
+    <t>МЖтК183-194</t>
+  </si>
+  <si>
+    <t>Фаргона шахарсуди 15 сутка</t>
+  </si>
+  <si>
+    <t>3-1501-2403/5012</t>
+  </si>
+  <si>
+    <t>Тожибоев Абдуллобек Ахрорбек угли 30.03.1992йилда туғилган Тошлок тумани Яккавут мфй Беруний 97</t>
+  </si>
+  <si>
+    <t>Нуралиев Эркин Оринбоевич 11.11.1970 йилда туғилган Фаргона шахар маданит кучаси 15-уй</t>
+  </si>
+  <si>
+    <t>МЖтК183-187-194</t>
+  </si>
+  <si>
+    <t>Фаргона шахарсуди 12 сутка</t>
+  </si>
+  <si>
+    <t>3-1501-2404/5025</t>
+  </si>
+  <si>
+    <t>Артикбаев Казбек Курбаналиевич 27.04.1989 йилда туғилган Фаргона шахар Ибн-Сино мфй Янги аср кучаси 188-уй 36-хона</t>
+  </si>
+  <si>
+    <t>3-1501-2402/5011</t>
+  </si>
+  <si>
+    <t>Джамилов Хамиджон Носирович 14.06.1965 йилда туғилган Фаргона шахар А.Навоий кучаси 13-б уй 6-хона</t>
+  </si>
+  <si>
+    <t>3-1501-2402/5016</t>
+  </si>
+  <si>
+    <t>Ахмаджонов Элёр Миродилович 04.03.1983 йилда туғилган Фаргона шахар Маданият кучаси 1/16</t>
+  </si>
+  <si>
+    <t>Камолдинов Эркинжон Эргашбаевич 27.09.1988 йилда туғилган Андижон шахар Истиклол кучаси</t>
+  </si>
+  <si>
+    <t>Фаргона шахарсуди 5 сутка</t>
+  </si>
+  <si>
+    <t>3-1501-2404/5024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Хабибуллаев Достонбек Рустамжон угли 29.05.1999йилда туғилган Кува тумани Саноатчилар мфй </t>
+  </si>
+  <si>
+    <t>Кува тумансуди 7 сутка</t>
+  </si>
+  <si>
+    <t>3-1511-2401/1650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шералиев Бахтиёржон Гуломович 02.07.1967йилда туғилган кува тумани Пастки хужахасан мфй </t>
+  </si>
+  <si>
+    <t>Кува тумансуди 5 сутка</t>
+  </si>
+  <si>
+    <t>3-1511-2401/1649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Алиев Сардоржон Тохиржон угли 20.11.1994йилда туғилган Учкуприк тумани каттакуштепа мфй </t>
+  </si>
+  <si>
+    <t>Учкуприк тумансуди 5 сутка</t>
+  </si>
+  <si>
+    <t>3-1518-2402/2060</t>
+  </si>
+  <si>
+    <t>Корабоев Бахтиёржон Улмасжонович 19.06.1986йилда туғилган Фаргона тумани Кургонтепа мфй Янги масжид 170</t>
+  </si>
+  <si>
+    <t>Фаргона тумансуди 5 сутка</t>
+  </si>
+  <si>
+    <t>3-1502-2401/2068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шукуров Окибхон Хикматилло угли 14.08.1993 йилда туғилган Маргилог шахар Юксалиш мфй </t>
+  </si>
+  <si>
+    <t>Маргилон шахарсуди 15 сутка</t>
+  </si>
+  <si>
+    <t>3-1513-2401/1926</t>
+  </si>
+  <si>
+    <t>Мамаджонов Абдугоффор Мукумжонович 08.08.1980йилда туғилган Маргилон шахар Милтиксоз мфй Б,Маргилоний 88-уй 16-хонада</t>
+  </si>
+  <si>
+    <t>Маргилон шахарсуди 7 сутка</t>
+  </si>
+  <si>
+    <t>3-1513-2401/1925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Хужаев Лутфилло Саидмуродович 17.12.1984 йилда туғилган Богдод тумани Куштегирмон мфй </t>
+  </si>
+  <si>
+    <t>Богдод тумансуди 10 сутка</t>
+  </si>
+  <si>
+    <t>3-1507-2401/2113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Курбонов Давлатжон Алимжонович 27.11.1968 йилда туғилган Богдод тумани Бедарак мфй Чукур богдод кишлоги </t>
+  </si>
+  <si>
+    <t>Богдод тумансуди 15 сутка</t>
+  </si>
+  <si>
+    <t>3-1507-2402/2109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Солиев Жахонгир Салимжон угли 15.10.1997йилда туғилган Бувайда тумани Чумбогиш мфй </t>
+  </si>
+  <si>
+    <t>Бувайда тумансуди 3 сутка</t>
+  </si>
+  <si>
+    <t>3-1508-2401/1873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Турдикулов Хасанбой Аскаралиевич 21.09.1986йилда туғилган Бувайда тумани Чумбогиш </t>
+  </si>
+  <si>
+    <t>Бувайда тумансуди 5 сутка</t>
+  </si>
+  <si>
+    <t>Шодмонов Хамиджон Махмудович 10.08.1972йилда туғилган Бешарик тумани Юкори товул мфй Оромгох кучаси 52</t>
+  </si>
+  <si>
+    <t>Бешарик тумансуди 5 сутка</t>
+  </si>
+  <si>
+    <t>3-1506-2402/2226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жалилов Бахтиёр Ашурович 21.02.1984йилда туғилган Бешарик тумани Кум мфй Калмок кишлоги </t>
+  </si>
+  <si>
+    <t>Бешарик тумансуди 15 сутка</t>
+  </si>
+  <si>
+    <t>3-1506-2402/2219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отабоев Шухратжон Абдунабиевич 15.07.1990йилда туғилган Бешарик тумани Сойлаби мфй </t>
+  </si>
+  <si>
+    <t>3-1506-2402/2224</t>
+  </si>
+  <si>
+    <t>Мунавров Алишер Мунаварович 13.09.1982йилда туғилган Сух тумани Навобод мфй Гавжум кучаси 5-уй</t>
+  </si>
+  <si>
+    <t>Сух тумансуди 5 сутка</t>
+  </si>
+  <si>
+    <t>3-1516-2401/514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Абдурахмонов Акмалжон Исроилович 05.09.1985йилда туғилган Ёзёвон тумани Корасокол мфй Намуна кучаси </t>
+  </si>
+  <si>
+    <t>МЖтК131</t>
+  </si>
+  <si>
+    <t>Тошлок тумансуди 15 сутка</t>
+  </si>
+  <si>
+    <t>AB—5078521</t>
+  </si>
+  <si>
+    <t>Мирзалиев Дилмирод Адхам ўғли 09.09.1990 йилда туғилган Қўштепа тумани Эшонгузар мфй, Зироаткор к 627-уй</t>
+  </si>
+  <si>
+    <t>Марғилон шахар суди5 сутка</t>
+  </si>
+  <si>
+    <t>3-1513-2402/1942</t>
+  </si>
+  <si>
+    <t>Қурбанов Обиджон Қодирович 10.03.1987 йилда туғилган Марғилон ш Туттаги мфй, Ипак йўли 346</t>
+  </si>
+  <si>
+    <t>Марғилон шахар суди10 сутка</t>
+  </si>
+  <si>
+    <t>3-1513-2402/1940</t>
+  </si>
+  <si>
+    <t>Тошпўлатов Бахтиёржон Холдорали ўғли 22.05.1995 йилда туғилган Марғилон шаҳар Милтиқсоз мфй Б.Марғилоний 110/9-уй</t>
+  </si>
+  <si>
+    <t>Марғилон шахар суди4 сутка</t>
+  </si>
+  <si>
+    <t>3-1513-2402/1939</t>
+  </si>
+  <si>
+    <t>Усмонов Рахматжон Расулович 18.08.1975 йилда туғилган Қува тумани Мустафо кўчаси 66-уй</t>
+  </si>
+  <si>
+    <t>Фаргона шахар суди4 сутка</t>
+  </si>
+  <si>
+    <t>3-1501-2403/5034</t>
+  </si>
+  <si>
+    <t>Холматов Миржахон Мухторжон ўғли 02.10.1993 йилда туғилган Фарғона шахар Фузули 11</t>
+  </si>
+  <si>
+    <t>Фаргона шахар суди3 сутка</t>
+  </si>
+  <si>
+    <t>Зокирова Зебохон Адхам қизи 23.08.2003 йилда туғилган Тошлоқ тумани Заркент мфй, Заркент кўчаси 58-уй</t>
+  </si>
+  <si>
+    <t>МЖтК183-190, 194</t>
+  </si>
+  <si>
+    <t>Фаргона шахар суди5 сутка</t>
+  </si>
+  <si>
+    <t>3-1505-2401/929</t>
+  </si>
+  <si>
+    <t>Махмудова Гулбахор Абдуқаххоровна 05.04.1989 йилда туғилган Фарғона шаҳар ЮБахор мфй, Мархамат 97-уй</t>
+  </si>
+  <si>
+    <t>3-1505-2401/928</t>
+  </si>
+  <si>
+    <t>Жабборов Алижон Ахранқулович 22.09.1968 йилда туғилган Фарғона шаҳар маданият 45</t>
+  </si>
+  <si>
+    <t>Усмонов Бахтиёр Тохиржонович 20.04.1974 йилда туғилган Фарғона шаҳар Юлдуз мфй, Янги аср кўчаси 96-уй</t>
+  </si>
+  <si>
+    <t>МЖтК183-187</t>
+  </si>
+  <si>
+    <t>3-1501-2406/5029</t>
+  </si>
+  <si>
+    <t>Бўрибеков Акмал Хасанович 29.08.1979 йилда туғилган Фарғона шаҳар Маданият 39-уй</t>
+  </si>
+  <si>
+    <t>Йўлдошев Асадбек Отабек ўғли 04.09.2001 йилда туғилган Қўқон шахар Хазийний 38</t>
+  </si>
+  <si>
+    <t>Қўқон шахар суди7 сутка</t>
+  </si>
+  <si>
+    <t>3-1503-2401/4017</t>
+  </si>
+  <si>
+    <t>Орипов Жўрабой Хасанович 10.11.1972 йилда туғилган Фарғона тумани Зилол мфй Зилол к 66-уй</t>
+  </si>
+  <si>
+    <t>МЖтК183-187,194</t>
+  </si>
+  <si>
+    <t>Фаргона тумани суди10 сутка</t>
+  </si>
+  <si>
+    <t>3-1502-2402/2097</t>
+  </si>
+  <si>
+    <t>Шарипов Муродил Мухторович 27.08.1989 йилда туғилган Қувасой Шаҳар Валик мфй, Мажнунтол 20-уй</t>
+  </si>
+  <si>
+    <t>МЖтК183-185, 187, 194</t>
+  </si>
+  <si>
+    <t>Қувасой шахар суди10 сутка</t>
+  </si>
+  <si>
+    <t>3-1505-2401/926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Турсунов Авазбек Абдулазиз угли 12.09.1996йилда туғилган Кува тумани Тахтакуприк МФЙ </t>
+  </si>
+  <si>
+    <t>Кува туман суди3 сутка</t>
+  </si>
+  <si>
+    <t>3-1511-2401/1692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Маликов Исроил Иномжонович 03.12.1989йилда туғилган Кува тумани Пандигон МФЙ </t>
+  </si>
+  <si>
+    <t>Кува туман суди7 сутка</t>
+  </si>
+  <si>
+    <t>3-1511-2401/1712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Абдулбориев Хуршидбек Абдухалил угли 05.07.1992йилда туғилган Кува тумани Шабнам МФЙ </t>
+  </si>
+  <si>
+    <t>Кува туман суди10 сутка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Маматов Аброр Тохирович 31.01.1990йилда туғилган Кува тумани Чилон МФЙ </t>
+  </si>
+  <si>
+    <t>Кува туман суди5 сутка</t>
+  </si>
+  <si>
+    <t>3-1511-2403/1665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Олимов Асилбек Халилжон угли 13.07.2000йилда туғилган Кува тумани Узбек МФЙ </t>
+  </si>
+  <si>
+    <t>3-1511-2403/1686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Исроилов Бехзод Бахтиёржон угли 27.01.1998йилда туғилган Кува тумани Туркровот МФЙ </t>
+  </si>
+  <si>
+    <t>3-1511-2401/1708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ботиров Лазизбек Мусажонович 10.01.1989йилда туғилган Кува тумани Урабоши МФЙ </t>
+  </si>
+  <si>
+    <t>3-1511-2403/1681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Абдуллаев Элбек Шавкат угли 18.08.1997йилда туғилган Кува тумани Урогбоши МФЙ </t>
+  </si>
+  <si>
+    <t>3-1511-2403/1664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ахмедов Сохибжон Хабибуллаевич 22.04.1989йилда туғилган Кува тумани Янгихаёт МФЙ </t>
+  </si>
+  <si>
+    <t>3-1511-2403/1685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Азизов Омонжон Одилович 10.01.1973йилда туғилган Кува тумани Сойкелди МФЙ </t>
+  </si>
+  <si>
+    <t>3-1511-2401/1691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зокиров Муроджон Боходиржон угли 12.11.1991йилда туғилган Кува тумани Кайрма МФЙ </t>
+  </si>
+  <si>
+    <t>3-1511-2401/1693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Эргашов Отабек Хусанбой угли 26.06.1999йилда туғилган Риштон тумани Хожикишлок МФЙ </t>
+  </si>
+  <si>
+    <t>3-1511-2403/1667</t>
+  </si>
+  <si>
+    <t>3-1511-2401/1694</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,13 +596,40 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -168,7 +672,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -188,10 +692,52 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -495,21 +1041,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" customWidth="1"/>
+    <col min="5" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -531,7 +1076,7 @@
       <c r="F1" s="6">
         <v>255000</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -554,12 +1099,12 @@
       <c r="F2" s="6">
         <v>153000</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -577,7 +1122,7 @@
       <c r="F3" s="6">
         <v>153000</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -600,7 +1145,7 @@
       <c r="F4" s="6">
         <v>765000</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -623,7 +1168,7 @@
       <c r="F5" s="6">
         <v>153000</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -646,8 +1191,1342 @@
       <c r="F6" s="6">
         <v>153000</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="9" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="5">
+        <v>45512</v>
+      </c>
+      <c r="F7" s="6">
+        <v>255000</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="5">
+        <v>45512</v>
+      </c>
+      <c r="F8" s="6">
+        <v>153000</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="5">
+        <v>45512</v>
+      </c>
+      <c r="F9" s="6">
+        <v>153000</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="5">
+        <v>45512</v>
+      </c>
+      <c r="F10" s="6">
+        <v>765000</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="5">
+        <v>45512</v>
+      </c>
+      <c r="F11" s="6">
+        <v>765000</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="5">
+        <v>45512</v>
+      </c>
+      <c r="F12" s="6">
+        <v>255000</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="5">
+        <v>45512</v>
+      </c>
+      <c r="F13" s="6">
+        <v>357000</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="5">
+        <v>45512</v>
+      </c>
+      <c r="F14" s="6">
+        <v>765000</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="5">
+        <v>45512</v>
+      </c>
+      <c r="F15" s="6">
+        <v>765000</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="5">
+        <v>45512</v>
+      </c>
+      <c r="F16" s="6">
+        <v>357000</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>17</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="13">
+        <v>45512</v>
+      </c>
+      <c r="F17" s="14">
+        <v>510000</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="5">
+        <v>45513</v>
+      </c>
+      <c r="F18" s="6">
+        <v>765000</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="5">
+        <v>45513</v>
+      </c>
+      <c r="F19" s="6">
+        <v>765000</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="5">
+        <v>45513</v>
+      </c>
+      <c r="F20" s="6">
+        <v>612000</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="5">
+        <v>45513</v>
+      </c>
+      <c r="F21" s="6">
+        <v>765000</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="5">
+        <v>45513</v>
+      </c>
+      <c r="F22" s="6">
+        <v>765000</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="5">
+        <v>45513</v>
+      </c>
+      <c r="F23" s="6">
+        <v>612000</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="5">
+        <v>45513</v>
+      </c>
+      <c r="F24" s="6">
+        <v>255000</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="5">
+        <v>45513</v>
+      </c>
+      <c r="F25" s="6">
+        <v>357000</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="5">
+        <v>45513</v>
+      </c>
+      <c r="F26" s="6">
+        <v>255000</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="5">
+        <v>45513</v>
+      </c>
+      <c r="F27" s="6">
+        <v>255000</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="5">
+        <v>45513</v>
+      </c>
+      <c r="F28" s="6">
+        <v>255000</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="5">
+        <v>45513</v>
+      </c>
+      <c r="F29" s="6">
+        <v>765000</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" s="5">
+        <v>45513</v>
+      </c>
+      <c r="F30" s="6">
+        <v>357000</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="5">
+        <v>45513</v>
+      </c>
+      <c r="F31" s="6">
+        <v>510000</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>33</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E32" s="5">
+        <v>45513</v>
+      </c>
+      <c r="F32" s="6">
+        <v>765000</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>34</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" s="5">
+        <v>45513</v>
+      </c>
+      <c r="F33" s="6">
+        <v>153000</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>35</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" s="5">
+        <v>45513</v>
+      </c>
+      <c r="F34" s="6">
+        <v>255000</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>36</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E35" s="5">
+        <v>45513</v>
+      </c>
+      <c r="F35" s="6">
+        <v>255000</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>37</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" s="5">
+        <v>45513</v>
+      </c>
+      <c r="F36" s="6">
+        <v>765000</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>38</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37" s="5">
+        <v>45513</v>
+      </c>
+      <c r="F37" s="6">
+        <v>255000</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>39</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38" s="5">
+        <v>45513</v>
+      </c>
+      <c r="F38" s="6">
+        <v>255000</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
+        <v>40</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E39" s="13">
+        <v>45513</v>
+      </c>
+      <c r="F39" s="14">
+        <v>765000</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>41</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E40" s="15">
+        <v>45516</v>
+      </c>
+      <c r="F40" s="16">
+        <v>255000</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>42</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E41" s="15">
+        <v>45515</v>
+      </c>
+      <c r="F41" s="16">
+        <v>510000</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
+        <v>43</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E42" s="15">
+        <v>45516</v>
+      </c>
+      <c r="F42" s="16">
+        <v>204000</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
+        <v>44</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E43" s="15">
+        <v>45516</v>
+      </c>
+      <c r="F43" s="16">
+        <v>204000</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>45</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E44" s="15">
+        <v>45516</v>
+      </c>
+      <c r="F44" s="16">
+        <v>153000</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>46</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E45" s="15">
+        <v>45515</v>
+      </c>
+      <c r="F45" s="16">
+        <v>255000</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
+        <v>47</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E46" s="15">
+        <v>45515</v>
+      </c>
+      <c r="F46" s="16">
+        <v>204000</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
+        <v>48</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E47" s="15">
+        <v>45516</v>
+      </c>
+      <c r="F47" s="16">
+        <v>153000</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>49</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E48" s="15">
+        <v>45516</v>
+      </c>
+      <c r="F48" s="16">
+        <v>153000</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
+        <v>50</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E49" s="15">
+        <v>45516</v>
+      </c>
+      <c r="F49" s="16">
+        <v>153000</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>51</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E50" s="15">
+        <v>45516</v>
+      </c>
+      <c r="F50" s="16">
+        <v>357000</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="7">
+        <v>52</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E51" s="15">
+        <v>45516</v>
+      </c>
+      <c r="F51" s="16">
+        <v>510000</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="7">
+        <v>53</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="E52" s="17">
+        <v>45516</v>
+      </c>
+      <c r="F52" s="18">
+        <v>510000</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>54</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E53" s="15">
+        <v>45517</v>
+      </c>
+      <c r="F53" s="16">
+        <v>153000</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>55</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E54" s="15">
+        <v>45517</v>
+      </c>
+      <c r="F54" s="16">
+        <v>357000</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="7">
+        <v>56</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E55" s="15">
+        <v>45517</v>
+      </c>
+      <c r="F55" s="16">
+        <v>510000</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="7">
+        <v>57</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E56" s="15">
+        <v>45517</v>
+      </c>
+      <c r="F56" s="16">
+        <v>255000</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>58</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E57" s="15">
+        <v>45517</v>
+      </c>
+      <c r="F57" s="16">
+        <v>255000</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>59</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E58" s="15">
+        <v>45517</v>
+      </c>
+      <c r="F58" s="16">
+        <v>255000</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="7">
+        <v>60</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E59" s="15">
+        <v>45517</v>
+      </c>
+      <c r="F59" s="16">
+        <v>255000</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="7">
+        <v>61</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E60" s="15">
+        <v>45517</v>
+      </c>
+      <c r="F60" s="16">
+        <v>255000</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>62</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="E61" s="21">
+        <v>45517</v>
+      </c>
+      <c r="F61" s="22">
+        <v>255000</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>63</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E62" s="15">
+        <v>45517</v>
+      </c>
+      <c r="F62" s="16">
+        <v>510000</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="7">
+        <v>64</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E63" s="15">
+        <v>45517</v>
+      </c>
+      <c r="F63" s="16">
+        <v>153000</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" s="7">
+        <v>65</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E64" s="15">
+        <v>45517</v>
+      </c>
+      <c r="F64" s="16">
+        <v>255000</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/data/values.xlsx
+++ b/data/values.xlsx
@@ -16,103 +16,565 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
-  <si>
-    <t>МЖтК47</t>
-  </si>
-  <si>
-    <t>Эрматов Бахтиёр Узакович 29.10.1981йилда туғилган Данғара тумани Рахматилло МФй</t>
-  </si>
-  <si>
-    <t>МЖтК194</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="184">
+  <si>
+    <t>Содиков Фахридин Суфиевич 24.05.1970 йилда туғилган Сўх тумани Саховат кўчаси 10-уй</t>
+  </si>
+  <si>
+    <t>МЖтК 187,194</t>
+  </si>
+  <si>
+    <t>Сўх туман суди7 сутка</t>
+  </si>
+  <si>
+    <t>3-1516-2401/610</t>
+  </si>
+  <si>
+    <t>Мамаюнусов Рустам Туркманович 05.05.1974 йилда туғилган Қувасой шаҳар Шабнам кўчаси 144-уй</t>
+  </si>
+  <si>
+    <t>МЖтК 187</t>
+  </si>
+  <si>
+    <t>Қувасой шаҳар суди3 сутка</t>
+  </si>
+  <si>
+    <t>3-1505-2401/1157</t>
+  </si>
+  <si>
+    <t>ЮнусовХолмурод Джабарович 01.06.1987йилда туғилган Қувасой шаҳар Чаман кўчаси 25-уй</t>
+  </si>
+  <si>
+    <t>МЖтК 183,194</t>
+  </si>
+  <si>
+    <t>3-1505-2401/1155</t>
+  </si>
+  <si>
+    <t>Фозилов Сардорбек Қахрамонович 13.09.1988 йилда туғилган Олитариқ тумани Навоий кўчаси 21А/32</t>
+  </si>
+  <si>
+    <t>Олтиариқ туман суди5 сутка</t>
+  </si>
+  <si>
+    <t>3-1514-2401/2280</t>
+  </si>
+  <si>
+    <t>Олтиариқ туман суди10 сутка</t>
+  </si>
+  <si>
+    <t>3-1514-2401/2277</t>
+  </si>
+  <si>
+    <t>Адилов Дилшод Азизович 16.06.1983 йилда туғилган Фарғона шаҳар Истеъдод кўчаси 12-уй 17-хона</t>
+  </si>
+  <si>
+    <t>МЖтК 183,185,187,194</t>
+  </si>
+  <si>
+    <t>Фарғона шаҳар суди15 сутка</t>
+  </si>
+  <si>
+    <t>3-1501-2406/5895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Юсупов Элёрбек Мухторалиевич 22.04.1989 йилда туғилган Олтиариқ тумани Дўстлик кўчаси 54-уй </t>
+  </si>
+  <si>
+    <t>МЖтК 47</t>
+  </si>
+  <si>
+    <t>Олтиариқ туман суди9 сутка</t>
+  </si>
+  <si>
+    <t>3-1514-2401/2279</t>
+  </si>
+  <si>
+    <t>Мелибоев Дилшоджон Эркабоевич 25.03.1987 йилда туғилган Данғара тумани Сой-шилдир қишлоғи</t>
+  </si>
+  <si>
+    <t>МЖтК 131</t>
+  </si>
+  <si>
+    <t>Данғара туман суди15 сутка</t>
+  </si>
+  <si>
+    <t>3-1509-2401/1855</t>
+  </si>
+  <si>
+    <t>Боймирзаев Рамзхон Лазизхон ўғли 18.08.1997 йилда туғилган Данғара тумани Бекбўтабек кўчаси 1В-уй</t>
+  </si>
+  <si>
+    <t>МЖтК 220</t>
   </si>
   <si>
     <t>Данғара туман суди10 сутка</t>
   </si>
   <si>
-    <t>3-1509-2401/1519</t>
-  </si>
-  <si>
-    <t>Абдушукров Шохрухмирзо Шавкат угли 15.09.1995йилда туғилган Фаргона шахар Туролн кучаси 28/4</t>
-  </si>
-  <si>
-    <t>МЖтК183-194</t>
-  </si>
-  <si>
-    <t>Фаргона шахарсуди 15 сутка</t>
-  </si>
-  <si>
-    <t>3-1501-2403/5012</t>
-  </si>
-  <si>
-    <t>Тожибоев Абдуллобек Ахрорбек угли 30.03.1992йилда туғилган Тошлок тумани Яккавут мфй Беруний 97</t>
-  </si>
-  <si>
-    <t>Нуралиев Эркин Оринбоевич 11.11.1970 йилда туғилган Фаргона шахар маданит кучаси 15-уй</t>
-  </si>
-  <si>
-    <t>МЖтК183-187-194</t>
-  </si>
-  <si>
-    <t>Фаргона шахарсуди 12 сутка</t>
-  </si>
-  <si>
-    <t>3-1501-2404/5025</t>
-  </si>
-  <si>
-    <t>Артикбаев Казбек Курбаналиевич 27.04.1989 йилда туғилган Фаргона шахар Ибн-Сино мфй Янги аср кучаси 188-уй 36-хона</t>
-  </si>
-  <si>
-    <t>3-1501-2402/5011</t>
-  </si>
-  <si>
-    <t>Джамилов Хамиджон Носирович 14.06.1965 йилда туғилган Фаргона шахар А.Навоий кучаси 13-б уй 6-хона</t>
-  </si>
-  <si>
-    <t>3-1501-2402/5016</t>
-  </si>
-  <si>
-    <t>Ахмаджонов Элёр Миродилович 04.03.1983 йилда туғилган Фаргона шахар Маданият кучаси 1/16</t>
-  </si>
-  <si>
-    <t>Камолдинов Эркинжон Эргашбаевич 27.09.1988 йилда туғилган Андижон шахар Истиклол кучаси</t>
-  </si>
-  <si>
-    <t>МЖтК187</t>
-  </si>
-  <si>
-    <t>Фаргона шахарсуди 5 сутка</t>
-  </si>
-  <si>
-    <t>3-1501-2404/5024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Хабибуллаев Достонбек Рустамжон угли 29.05.1999йилда туғилган Кува тумани Саноатчилар мфй </t>
-  </si>
-  <si>
-    <t>Кува тумансуди 7 сутка</t>
-  </si>
-  <si>
-    <t>3-1511-2401/1650</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шералиев Бахтиёржон Гуломович 02.07.1967йилда туғилган кува тумани Пастки хужахасан мфй </t>
-  </si>
-  <si>
-    <t>МЖтК206</t>
-  </si>
-  <si>
-    <t>Кува тумансуди 5 сутка</t>
-  </si>
-  <si>
-    <t>3-1511-2401/1649</t>
+    <t>3-1509-2401/1854</t>
+  </si>
+  <si>
+    <t>Турдиев Нурмухаммад Абдумаликович 01.09.1981йилда туғилган Бешариқ тумани Собиртепа қишлоғи</t>
+  </si>
+  <si>
+    <t>МЖтК183,187,194</t>
+  </si>
+  <si>
+    <t>Бешариқ туман суди5 сутка</t>
+  </si>
+  <si>
+    <t>3-1506-2402/2594</t>
+  </si>
+  <si>
+    <t>Давлатов Хусанжон Баходиржон ўғли 06.07.2003 йилда туғилган Данғара тумани Урганжи қишлоғи</t>
+  </si>
+  <si>
+    <t>МЖтК41</t>
+  </si>
+  <si>
+    <t>Данғара туман суди5 сутка</t>
+  </si>
+  <si>
+    <t>3-1509-2402/1853</t>
+  </si>
+  <si>
+    <t>Хайдаров Хуршид Мансурович 06.03.1982 йилда туғилган Ўзбекистон тумани Конизар кўчаси</t>
+  </si>
+  <si>
+    <t>МЖтК187,194</t>
+  </si>
+  <si>
+    <t>Ўзбекистон туман суди5 сутка</t>
+  </si>
+  <si>
+    <t>3-1504-2402/2363</t>
+  </si>
+  <si>
+    <t>3-1511-2401/1904</t>
+  </si>
+  <si>
+    <t>3-1515-2402/3042</t>
+  </si>
+  <si>
+    <t>Абдурахимов Руфат Рахимович 26.11.1989 йилда туғилган Фарғона шаҳар А.Қодирий кўчаси  83-уй 16-хона</t>
+  </si>
+  <si>
+    <t>3-1511-2401/1922</t>
+  </si>
+  <si>
+    <t>Исомиддинов Акбар Қурбоналиевич 23.06.1977 йилда туғилган Қува тумани Пастки Хонобод мфй А.Навоий кўчаси</t>
+  </si>
+  <si>
+    <t>3-1511-2401/1906</t>
+  </si>
+  <si>
+    <t>Рустамов Санжарбек Рустамжон ўғли 26.04.1999 йилда туғилган Қува тумани Оққўрғон мфй  Намуна кўчаси</t>
+  </si>
+  <si>
+    <t>Кодиров Мухторжон Мамирович 14.09.1980 йилда туғилган Риштон туман Узун мфй</t>
+  </si>
+  <si>
+    <t>3-1515-2401/3038</t>
+  </si>
+  <si>
+    <t>Маматов Аброр Тохирович 31.01.1990 йилда туғилган Қува тумани Чилон мфй Бахтиқбол кўчаси</t>
+  </si>
+  <si>
+    <t>3-1511-2401/1909</t>
+  </si>
+  <si>
+    <t>Мирисаев Кахрамон Рахмоналиевич 22.09.1986 йилда туғилган Риштон туман Гонд мфй</t>
+  </si>
+  <si>
+    <t>3-1515-2401/3061</t>
+  </si>
+  <si>
+    <t>Саидов Курвонали Садикович 10.12.1976 йилда туғилган Қувасой шаҳарПолмон мфй</t>
+  </si>
+  <si>
+    <t>3-1505-2401/751</t>
+  </si>
+  <si>
+    <t>Мадазимов Бекзод Қобилжонович  20.09.1988 йилда туғилган  Қува тумани Пастки Хўжа хасан мфй Хўжахасан кўчаси</t>
+  </si>
+  <si>
+    <t>3-1505-2401/1886</t>
+  </si>
+  <si>
+    <t>3-1503-2405/4800</t>
+  </si>
+  <si>
+    <t>Рузиматов Жохонгир Равшанбек угли 26.06.1994 йилда туғилган Ёзёвон тумани Кургонча мфй</t>
+  </si>
+  <si>
+    <t>3-1510-2401/1325</t>
+  </si>
+  <si>
+    <t>Худойбердиев Мирзохиджон, Муродилович 03.11.1980 йилда туғилган Қува тумани Пастки Хонобод мфй Пастки Хонобод кўчаси</t>
+  </si>
+  <si>
+    <t>3-1503-2401/4807</t>
+  </si>
+  <si>
+    <t>3-1503-2402/4780</t>
+  </si>
+  <si>
+    <t>Абдукаримов Носиржон Абдугани угли 20.10.1990 йилда туғилган Ёзёвон тумани Истиклол мфй</t>
+  </si>
+  <si>
+    <t>3-1510-2401/1251</t>
+  </si>
+  <si>
+    <t>Турсунбоев Абдуллажон Шукуржон угли 26.10.1999 йилда туғилган Тошлок  туман Гузарбоши мфй</t>
+  </si>
+  <si>
+    <t>3-1517-2402/1949</t>
+  </si>
+  <si>
+    <t>3-1503-2402/4813</t>
+  </si>
+  <si>
+    <t>Рустамов Темур Рустам угли 11.10.1983 йилда туғилган Қўқон шаҳар А.Навоий мфй</t>
+  </si>
+  <si>
+    <t>3-1503-2401/4784</t>
+  </si>
+  <si>
+    <t>Турсунов Халимжон Олимович 22.60.1981 йилда туғилган Қува тумани Жалаер мфй Жалаер кўчаси</t>
+  </si>
+  <si>
+    <t>3-1518-2402/2425</t>
+  </si>
+  <si>
+    <t>3-1518-2402/2426</t>
+  </si>
+  <si>
+    <t>3-1518-2402/2427</t>
+  </si>
+  <si>
+    <t>Хакимов Орифжон Уринбоевич 23.09.1973 йилда туғилган Риштон туман Калайнов мфй</t>
+  </si>
+  <si>
+    <t>3-1515-2402/3046</t>
+  </si>
+  <si>
+    <t>Рахмонов Фуркат Мамиржонович 04.10.1990 йилда туғилган Риштон туман Абдулбаён МФЙ Шодлик кўчаси 4-уй</t>
+  </si>
+  <si>
+    <t>3-1515-2402/3052</t>
+  </si>
+  <si>
+    <t>Турсунбаев Карим Тургунбоевич 13.05.1957 йилда туғилган Риштон туман Зарарик мфй</t>
+  </si>
+  <si>
+    <t>3-1515-2401/3037</t>
+  </si>
+  <si>
+    <t>Камилов Акрамжон Абдуллаевич 11.11.1976 йилда туғилган Риштон туман Т.Ахмедов мфй</t>
+  </si>
+  <si>
+    <t>3-1515-2402/3045</t>
+  </si>
+  <si>
+    <t>3-1509-2402/1861</t>
+  </si>
+  <si>
+    <t>3-1509-2402/1860</t>
+  </si>
+  <si>
+    <t>3-1509-2401/1863</t>
+  </si>
+  <si>
+    <t>Абдукадиров Искандар Жўраевич 05.04.1959 йилда туғилган Риштон туман Гулистон мфй</t>
+  </si>
+  <si>
+    <t>3-1515-2402/3055</t>
+  </si>
+  <si>
+    <t>3-1502-2402/2514</t>
+  </si>
+  <si>
+    <t>Мамарасулов Бобиржон Бозорбой ўғли 16.06.1992 йилда туғилган Фарғона тумани Сухмозор кўчаси</t>
+  </si>
+  <si>
+    <t>3-1502-2402/2522</t>
+  </si>
+  <si>
+    <t>Тўхтасинов Музаффаржон Маруфович 30.05.1980 йилда туғилган Қўштепа тумани Равнақ кўчаси</t>
+  </si>
+  <si>
+    <t>3-1512-2401/2025</t>
+  </si>
+  <si>
+    <t>Абдулахатов Фахриддин Абдуқаххорович 04.04.1987 йилда туғилган Қўштепа тумани Нуронийлар кўчаси 181-уй</t>
+  </si>
+  <si>
+    <t>3-1512-2401/2008</t>
+  </si>
+  <si>
+    <t>Алиёров Хасанжон Шовкатжон ўғли 18.10.1990 йилда туғилган Фурқат тумани Капа қишлоғи</t>
+  </si>
+  <si>
+    <t>3-1519-2401/1626</t>
+  </si>
+  <si>
+    <t>Маманазаров Анваржон Мамиржонович 19.06.1983 йилда туғилган Боғдод тумани Бедарак қишлоғи</t>
+  </si>
+  <si>
+    <t>3-1507-2401/2445</t>
+  </si>
+  <si>
+    <t>Собуров Хасанжон Шавкатович 31.07.1992 йилда туғилган Фурқат тумани Сўлимгох кўчаси 149-уй</t>
+  </si>
+  <si>
+    <t>3-1519-2402/1638</t>
+  </si>
+  <si>
+    <t>Маматов Азизбек Ахмадбекович 03.03.1980 йилда туғилган Фарғона шаҳар Миндонобод кўчаси 120-уй 9-хона</t>
+  </si>
+  <si>
+    <t>3-1501-2402/5665</t>
+  </si>
+  <si>
+    <t>Боқижонов Муродилжон Маматқодир ўғли 26.09.1990 йилда туғилган Қўштепа тумани Обод кўчаси</t>
+  </si>
+  <si>
+    <t>3-1512-2402/2019</t>
+  </si>
+  <si>
+    <t>Султонов Исмоилжон Хаётжон ўғли 30.06.1995 йилда туғилган Риштон тумани Шодлик кўчаси</t>
+  </si>
+  <si>
+    <t>3-1515-2401/3068</t>
+  </si>
+  <si>
+    <t>Раззоқов Хасанбой Рўзиматович 02.01.1988 йилда туғилган Бешариқ тумани Истиқлол кўчаси</t>
+  </si>
+  <si>
+    <t>3-1506-2402/2621</t>
+  </si>
+  <si>
+    <t>Маддиев Элмурод Сахобжонович 10.08.1988 йилда туғилган Боғдод тумани Навбаҳор кўчаси 122-уй</t>
+  </si>
+  <si>
+    <t>3-1507-2401/2439</t>
+  </si>
+  <si>
+    <t>Султонов Достонбек Муроджон ўғли 12.03.1992 йилда туғилган Қўштепа тумани Шафтолибоғ кўчаси 64-уй</t>
+  </si>
+  <si>
+    <t>3-1512-2402/2018</t>
+  </si>
+  <si>
+    <t>Мамарахимов Умиджон Комилович 03.03.1972 йилда туғилган Фарғона тумани Хамза кўчаси 22-уй</t>
+  </si>
+  <si>
+    <t>3-1502-2402/2524</t>
+  </si>
+  <si>
+    <t>Султанов Расулжон Хусанович 20.11.1958 йилда туғилган Бешариқ тумани Дала кўчаси</t>
+  </si>
+  <si>
+    <t>3-1506-2402/2457</t>
+  </si>
+  <si>
+    <t>Аскаров Турғунбой Тохирович 08.12.1976 йилда туғилган Фарғона тумани Ёрқин кўчаси 83-уй</t>
+  </si>
+  <si>
+    <t>3-1502-2402/2533</t>
+  </si>
+  <si>
+    <t>Хамидов Халимжон Абдуманнонович 10.09.1984 йилда туғилган Бешариқ тумани Байналминал кўчаси 6-уй</t>
+  </si>
+  <si>
+    <t>3-1506-2402/2587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мусахонов Алишер Қодирович 22.07.1980 йилда туғилган Фарғона тумани Хувайдо кўчаси 18-уй </t>
+  </si>
+  <si>
+    <t>3-1502-2402/2523</t>
+  </si>
+  <si>
+    <t>Шаробидинов Бехзодбек Дилшодбек ўғли 27.04.1992 йилда туғилган Андижон  вилояти  Шахрихон тумумани Хидиршо кўчаси 4-уй</t>
+  </si>
+  <si>
+    <t>3-1510-2401/1326</t>
+  </si>
+  <si>
+    <t>Рахматжонов Илёсжон Рахимжон ўғли 21.051995 йилда туғилган Қува тумани Оққўрғон мфй Намуна кўчаси</t>
+  </si>
+  <si>
+    <t>Қува тумани суди 7 сутка</t>
+  </si>
+  <si>
+    <t>Туракулов Срожиддин Махаматович 31.01.1980 йилда туғилган Риштон туман Бужай мфй</t>
+  </si>
+  <si>
+    <t>МЖтК 183</t>
+  </si>
+  <si>
+    <t>Риштон туман суди 10 сутка</t>
+  </si>
+  <si>
+    <t>Қува тумани суди 5 сутка</t>
+  </si>
+  <si>
+    <t>Нажмиддинов Хилолиддин Фазлидинович 24.08.1978 йилда туғилган Қува тумани Янгихаёт мфй Сойбўйи кўчаси 69-уй</t>
+  </si>
+  <si>
+    <t>Қува тумани суди 15 сутка</t>
+  </si>
+  <si>
+    <t>Риштон туман суди 15 сутка</t>
+  </si>
+  <si>
+    <t>Қўқон шаҳарсуди 5 сутка</t>
+  </si>
+  <si>
+    <t>МЖтК 59</t>
+  </si>
+  <si>
+    <t>Қувасой шаҳарсуди 10 сутка</t>
+  </si>
+  <si>
+    <t>Рахмонов Сафарали Таджиалиевич 18.10.1986 йилда туғилган Қувасой шаҳар Полмон мфй</t>
+  </si>
+  <si>
+    <t>Қувасой шаҳарсуди 15 сутка</t>
+  </si>
+  <si>
+    <t>Маматов Боходир Салимович 06.11.1978 йилда туғилган Қўқон шаҳар Махрам мфй</t>
+  </si>
+  <si>
+    <t>Ёзёвон туман суди 3 сутка</t>
+  </si>
+  <si>
+    <t>Мамажонов Абдулла Аббосжонович 27.08.1984 йилда туғилган Қўқон шаҳар Ризк мфй</t>
+  </si>
+  <si>
+    <t>Сотволдиев Мухиддин Муйдинович 27.06.1964 йилда туғилган Қўқон шаҳар Тошкентликгузар мфй</t>
+  </si>
+  <si>
+    <t>Қўқон шаҳар суди10 сутка</t>
+  </si>
+  <si>
+    <t>Ёзёвон туман суди 15 сутка</t>
+  </si>
+  <si>
+    <t>Тошлок туман суди 10 сутка</t>
+  </si>
+  <si>
+    <t>Фозилов Рафикжон Расулович 27.02.1961 йилда туғилган Қўқон шаҳар Мукумий мфй</t>
+  </si>
+  <si>
+    <t>МЖтК 185</t>
+  </si>
+  <si>
+    <t>Қўқон шаҳар суди 5 сутка</t>
+  </si>
+  <si>
+    <t>МЖтК 206</t>
+  </si>
+  <si>
+    <t>Холматов Илхомжон Ихтиёржон угли  20.04.1995 йилда туғилган Учкўприк туман Жийда мфй</t>
+  </si>
+  <si>
+    <t>Учкўприк туман суди 15 сутка</t>
+  </si>
+  <si>
+    <t>Абдуллаев Даврон Муминжон угли 01.11.1991 йилда туғилган Учкўприк туман Бекобод мфй</t>
+  </si>
+  <si>
+    <t>Рахимов Олимжон Обидович 01.04.1987 йилда туғилган Учкўприк туман Туксонкувун мфй</t>
+  </si>
+  <si>
+    <t>Риштон туман суди 7 сутка</t>
+  </si>
+  <si>
+    <t>Риштон туман суди 5 сутка</t>
+  </si>
+  <si>
+    <t>Исаков Аваз Нематович 10.06.1984 йилда туғилган Данғара туман Найманча мфй</t>
+  </si>
+  <si>
+    <t>Данғара туман суди 7 сутка</t>
+  </si>
+  <si>
+    <t>Мелизияев Зухриддин Юсуфжон угли 10.11.2004 йилда туғилган Данғара туман Шопулат мфй</t>
+  </si>
+  <si>
+    <t>МЖтК 136</t>
+  </si>
+  <si>
+    <t>Тожибоев Шухрат Курбонович 08.06.1976 йилда туғилган Данғара туман Таптиксарой мфй</t>
+  </si>
+  <si>
+    <t>Жумаев Турсунбой Алиевич 21.12.1974 йилда туғилган Фарғона тумани Курилиш мфй</t>
+  </si>
+  <si>
+    <t>Фарғона туман суди 3 сутка</t>
+  </si>
+  <si>
+    <t>Рузматов Бекмурод Махсудали угли 13.08.1995 йилда туғилган Данғара туман Бойбута мфй</t>
+  </si>
+  <si>
+    <t>Фарғона туман суди 7 сутка</t>
+  </si>
+  <si>
+    <t>МЖтК 183,187,194</t>
+  </si>
+  <si>
+    <t>Қўштепа туман суди 5 сутка</t>
+  </si>
+  <si>
+    <t>Қўштепа туман суди 15 сутка</t>
+  </si>
+  <si>
+    <t>Фурқат туман суди 15 сутка</t>
+  </si>
+  <si>
+    <t>Боғдод туман суди 15 сутка</t>
+  </si>
+  <si>
+    <t>Фурқат туман суди 7 сутка</t>
+  </si>
+  <si>
+    <t>Фарғона шаҳар суди 15 сутка</t>
+  </si>
+  <si>
+    <t>МЖтК 183,187</t>
+  </si>
+  <si>
+    <t>Бешариқ туман суди 10 сутка</t>
+  </si>
+  <si>
+    <t>Боғдод туман суди 5 сутка</t>
+  </si>
+  <si>
+    <t>Қўштепа туман суди 8 сутка</t>
+  </si>
+  <si>
+    <t>Бешариқ туман суди 15 сутка</t>
+  </si>
+  <si>
+    <t>МЖтК 56</t>
+  </si>
+  <si>
+    <t>Фарғона туман суди 5 сутка</t>
+  </si>
+  <si>
+    <t>Ёзёвон туман суди 5 сутка</t>
+  </si>
+  <si>
+    <t>Комилов Шухратжон Шахобидинович 15.07.1989 йилда туғилган Олтиариқ тумани Полосонобод кўчаси 135-уй</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,41 +583,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -204,45 +680,54 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -546,252 +1031,1839 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" customWidth="1"/>
-    <col min="2" max="2" width="36.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="34" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" customWidth="1"/>
+    <col min="7" max="7" width="28.85546875" customWidth="1"/>
+    <col min="8" max="8" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="8">
+    <row r="1" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A1" s="16">
         <v>1</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="3">
+        <v>45553</v>
+      </c>
+      <c r="F1" s="3">
+        <v>45560</v>
+      </c>
+      <c r="G1" s="4">
+        <v>357000</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12">
-        <v>45512</v>
-      </c>
-      <c r="F1" s="13">
+    </row>
+    <row r="2" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3">
+        <v>45553</v>
+      </c>
+      <c r="F2" s="3">
+        <v>45556</v>
+      </c>
+      <c r="G2" s="4">
+        <v>153000</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3">
+        <v>45553</v>
+      </c>
+      <c r="F3" s="3">
+        <v>45556</v>
+      </c>
+      <c r="G3" s="4">
+        <v>153000</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3">
+        <v>45553</v>
+      </c>
+      <c r="F4" s="3">
+        <v>45558</v>
+      </c>
+      <c r="G4" s="4">
+        <v>255000</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3">
+        <v>45552</v>
+      </c>
+      <c r="F5" s="3">
+        <v>45562</v>
+      </c>
+      <c r="G5" s="4">
         <v>510000</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="H5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3">
+        <v>45553</v>
+      </c>
+      <c r="F6" s="3">
+        <v>45568</v>
+      </c>
+      <c r="G6" s="4">
+        <v>765000</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="3">
+        <v>45553</v>
+      </c>
+      <c r="F7" s="3">
+        <v>45568</v>
+      </c>
+      <c r="G7" s="4">
+        <v>459000</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="3">
+        <v>45553</v>
+      </c>
+      <c r="F8" s="3">
+        <v>45568</v>
+      </c>
+      <c r="G8" s="4">
+        <v>765000</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="3">
+        <v>45553</v>
+      </c>
+      <c r="F9" s="3">
+        <v>45563</v>
+      </c>
+      <c r="G9" s="4">
+        <v>510000</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="3">
+        <v>45553</v>
+      </c>
+      <c r="F10" s="3">
+        <v>45558</v>
+      </c>
+      <c r="G10" s="4">
+        <v>255000</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="3">
+        <v>45553</v>
+      </c>
+      <c r="F11" s="3">
+        <v>45558</v>
+      </c>
+      <c r="G11" s="4">
+        <v>255000</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <v>12</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="9">
+        <v>45553</v>
+      </c>
+      <c r="F12" s="9">
+        <v>45558</v>
+      </c>
+      <c r="G12" s="10">
+        <v>255000</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="3">
+        <v>45554</v>
+      </c>
+      <c r="F13" s="3">
+        <v>45561</v>
+      </c>
+      <c r="G13" s="4">
+        <v>357000</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" s="3">
+        <v>45554</v>
+      </c>
+      <c r="F14" s="3">
+        <v>45564</v>
+      </c>
+      <c r="G14" s="4">
+        <v>510000</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="3">
+        <v>45554</v>
+      </c>
+      <c r="F15" s="3">
+        <v>45559</v>
+      </c>
+      <c r="G15" s="4">
+        <v>255000</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16" s="3">
+        <v>45554</v>
+      </c>
+      <c r="F16" s="3">
+        <v>45561</v>
+      </c>
+      <c r="G16" s="4">
+        <v>357000</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A17" s="16">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E17" s="3">
+        <v>45554</v>
+      </c>
+      <c r="F17" s="3">
+        <v>45559</v>
+      </c>
+      <c r="G17" s="4">
+        <v>255000</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A18" s="16">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18" s="3">
+        <v>45554</v>
+      </c>
+      <c r="F18" s="3">
+        <v>45561</v>
+      </c>
+      <c r="G18" s="4">
+        <v>357000</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A19" s="16">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" s="3">
+        <v>45554</v>
+      </c>
+      <c r="F19" s="3">
+        <v>45564</v>
+      </c>
+      <c r="G19" s="4">
+        <v>510000</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A20" s="16">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E20" s="3">
+        <v>45554</v>
+      </c>
+      <c r="F20" s="3">
+        <v>45569</v>
+      </c>
+      <c r="G20" s="4">
+        <v>765000</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A21" s="16">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" s="3">
+        <v>45554</v>
+      </c>
+      <c r="F21" s="3">
+        <v>45569</v>
+      </c>
+      <c r="G21" s="4">
+        <v>765000</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A22" s="16">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3">
-        <v>45513</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="D22" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E22" s="3">
+        <v>45554</v>
+      </c>
+      <c r="F22" s="3">
+        <v>45564</v>
+      </c>
+      <c r="G22" s="4">
+        <v>510000</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A23" s="16">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E23" s="3">
+        <v>45554</v>
+      </c>
+      <c r="F23" s="3">
+        <v>45569</v>
+      </c>
+      <c r="G23" s="4">
         <v>765000</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>3</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="H23" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A24" s="16">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24" s="3">
+        <v>45554</v>
+      </c>
+      <c r="F24" s="3">
+        <v>45569</v>
+      </c>
+      <c r="G24" s="4">
+        <v>765000</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A25" s="16">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E25" s="3">
+        <v>45554</v>
+      </c>
+      <c r="F25" s="3">
+        <v>45559</v>
+      </c>
+      <c r="G25" s="4">
+        <v>255000</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A26" s="16">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E26" s="3">
+        <v>45554</v>
+      </c>
+      <c r="F26" s="3">
+        <v>45557</v>
+      </c>
+      <c r="G26" s="4">
+        <v>153000</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="16">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3">
-        <v>45513</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="D27" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27" s="3">
+        <v>45554</v>
+      </c>
+      <c r="F27" s="3">
+        <v>45561</v>
+      </c>
+      <c r="G27" s="4">
+        <v>357000</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A28" s="16">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E28" s="3">
+        <v>45554</v>
+      </c>
+      <c r="F28" s="3">
+        <v>45559</v>
+      </c>
+      <c r="G28" s="4">
+        <v>255000</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A29" s="16">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E29" s="3">
+        <v>45554</v>
+      </c>
+      <c r="F29" s="3">
+        <v>45564</v>
+      </c>
+      <c r="G29" s="4">
+        <v>510000</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A30" s="16">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E30" s="3">
+        <v>45554</v>
+      </c>
+      <c r="F30" s="3">
+        <v>45569</v>
+      </c>
+      <c r="G30" s="4">
         <v>765000</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3">
-        <v>45513</v>
-      </c>
-      <c r="F4" s="2">
-        <v>612000</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="H30" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A31" s="16">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E31" s="3">
+        <v>45554</v>
+      </c>
+      <c r="F31" s="3">
+        <v>45564</v>
+      </c>
+      <c r="G31" s="4">
+        <v>510000</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A32" s="16">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E32" s="3">
+        <v>45554</v>
+      </c>
+      <c r="F32" s="3">
+        <v>45559</v>
+      </c>
+      <c r="G32" s="4">
+        <v>255000</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A33" s="16">
+        <v>33</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E33" s="3">
+        <v>45554</v>
+      </c>
+      <c r="F33" s="3">
+        <v>45559</v>
+      </c>
+      <c r="G33" s="4">
+        <v>255000</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A34" s="16">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E34" s="3">
+        <v>45554</v>
+      </c>
+      <c r="F34" s="3">
+        <v>45559</v>
+      </c>
+      <c r="G34" s="4">
+        <v>255000</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A35" s="16">
+        <v>35</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E35" s="3">
+        <v>45554</v>
+      </c>
+      <c r="F35" s="3">
+        <v>45569</v>
+      </c>
+      <c r="G35" s="4">
+        <v>765000</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A36" s="16">
+        <v>36</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E36" s="3">
+        <v>45554</v>
+      </c>
+      <c r="F36" s="3">
+        <v>45569</v>
+      </c>
+      <c r="G36" s="4">
+        <v>765000</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A37" s="16">
+        <v>37</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E37" s="3">
+        <v>45554</v>
+      </c>
+      <c r="F37" s="3">
+        <v>45569</v>
+      </c>
+      <c r="G37" s="4">
+        <v>765000</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A38" s="16">
+        <v>38</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E38" s="3">
+        <v>45554</v>
+      </c>
+      <c r="F38" s="3">
+        <v>45564</v>
+      </c>
+      <c r="G38" s="4">
+        <v>510000</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A39" s="16">
+        <v>39</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E39" s="3">
+        <v>45554</v>
+      </c>
+      <c r="F39" s="3">
+        <v>45561</v>
+      </c>
+      <c r="G39" s="4">
+        <v>357000</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A40" s="16">
+        <v>40</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="3">
-        <v>45513</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="D40" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E40" s="3">
+        <v>45554</v>
+      </c>
+      <c r="F40" s="3">
+        <v>45561</v>
+      </c>
+      <c r="G40" s="4">
+        <v>357000</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A41" s="16">
+        <v>41</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E41" s="3">
+        <v>45554</v>
+      </c>
+      <c r="F41" s="3">
+        <v>45559</v>
+      </c>
+      <c r="G41" s="4">
+        <v>255000</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A42" s="16">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E42" s="3">
+        <v>45554</v>
+      </c>
+      <c r="F42" s="3">
+        <v>45561</v>
+      </c>
+      <c r="G42" s="4">
+        <v>357000</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A43" s="16">
+        <v>43</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E43" s="3">
+        <v>45554</v>
+      </c>
+      <c r="F43" s="3">
+        <v>45561</v>
+      </c>
+      <c r="G43" s="4">
+        <v>357000</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A44" s="16">
+        <v>44</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E44" s="3">
+        <v>45554</v>
+      </c>
+      <c r="F44" s="3">
+        <v>45561</v>
+      </c>
+      <c r="G44" s="4">
+        <v>357000</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A45" s="16">
+        <v>45</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E45" s="3">
+        <v>45554</v>
+      </c>
+      <c r="F45" s="3">
+        <v>45561</v>
+      </c>
+      <c r="G45" s="4">
+        <v>357000</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A46" s="16">
+        <v>46</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E46" s="3">
+        <v>45554</v>
+      </c>
+      <c r="F46" s="3">
+        <v>45557</v>
+      </c>
+      <c r="G46" s="4">
+        <v>153000</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A47" s="16">
+        <v>47</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E47" s="9">
+        <v>45554</v>
+      </c>
+      <c r="F47" s="9">
+        <v>45561</v>
+      </c>
+      <c r="G47" s="10">
+        <v>357000</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A48" s="16">
+        <v>48</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E48" s="12">
+        <v>45555</v>
+      </c>
+      <c r="F48" s="12">
+        <v>45562</v>
+      </c>
+      <c r="G48" s="13">
+        <v>357000</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A49" s="16">
+        <v>49</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="E49" s="3">
+        <v>45555</v>
+      </c>
+      <c r="F49" s="3">
+        <v>45560</v>
+      </c>
+      <c r="G49" s="4">
+        <v>255000</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A50" s="16">
+        <v>50</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E50" s="3">
+        <v>45555</v>
+      </c>
+      <c r="F50" s="3">
+        <v>45570</v>
+      </c>
+      <c r="G50" s="4">
         <v>765000</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>6</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="3">
-        <v>45513</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="H50" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A51" s="16">
+        <v>51</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E51" s="3">
+        <v>45555</v>
+      </c>
+      <c r="F51" s="3">
+        <v>45570</v>
+      </c>
+      <c r="G51" s="4">
         <v>765000</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>7</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>45513</v>
-      </c>
-      <c r="F7" s="2">
-        <v>612000</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>8</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="H51" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A52" s="16">
+        <v>52</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="3">
-        <v>45513</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="D52" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E52" s="3">
+        <v>45555</v>
+      </c>
+      <c r="F52" s="3">
+        <v>45570</v>
+      </c>
+      <c r="G52" s="4">
+        <v>765000</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A53" s="16">
+        <v>53</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="E53" s="3">
+        <v>45555</v>
+      </c>
+      <c r="F53" s="3">
+        <v>45562</v>
+      </c>
+      <c r="G53" s="4">
+        <v>357000</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A54" s="16">
+        <v>54</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E54" s="3">
+        <v>45555</v>
+      </c>
+      <c r="F54" s="3">
+        <v>45570</v>
+      </c>
+      <c r="G54" s="4">
+        <v>765000</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A55" s="16">
+        <v>55</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E55" s="3">
+        <v>45555</v>
+      </c>
+      <c r="F55" s="3">
+        <v>45560</v>
+      </c>
+      <c r="G55" s="4">
         <v>255000</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="H55" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A56" s="16">
+        <v>56</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E56" s="3">
+        <v>45555</v>
+      </c>
+      <c r="F56" s="3">
+        <v>45570</v>
+      </c>
+      <c r="G56" s="4">
+        <v>765000</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A57" s="16">
+        <v>57</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E57" s="3">
+        <v>45555</v>
+      </c>
+      <c r="F57" s="3">
+        <v>45565</v>
+      </c>
+      <c r="G57" s="4">
+        <v>510000</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A58" s="16">
+        <v>58</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="E58" s="3">
+        <v>45555</v>
+      </c>
+      <c r="F58" s="3">
+        <v>45560</v>
+      </c>
+      <c r="G58" s="4">
+        <v>255000</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A59" s="16">
+        <v>59</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="3">
-        <v>45513</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="D59" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="E59" s="3">
+        <v>45555</v>
+      </c>
+      <c r="F59" s="3">
+        <v>45563</v>
+      </c>
+      <c r="G59" s="4">
+        <v>408000</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A60" s="16">
+        <v>60</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E60" s="3">
+        <v>45555</v>
+      </c>
+      <c r="F60" s="3">
+        <v>45558</v>
+      </c>
+      <c r="G60" s="4">
+        <v>153000</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A61" s="16">
+        <v>61</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="E61" s="3">
+        <v>45555</v>
+      </c>
+      <c r="F61" s="3">
+        <v>45570</v>
+      </c>
+      <c r="G61" s="4">
+        <v>765000</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A62" s="16">
+        <v>62</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E62" s="3">
+        <v>45555</v>
+      </c>
+      <c r="F62" s="3">
+        <v>45562</v>
+      </c>
+      <c r="G62" s="4">
         <v>357000</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>10</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="3">
-        <v>45513</v>
-      </c>
-      <c r="F10" s="2">
+      <c r="H62" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A63" s="16">
+        <v>63</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="E63" s="3">
+        <v>45555</v>
+      </c>
+      <c r="F63" s="3">
+        <v>45570</v>
+      </c>
+      <c r="G63" s="4">
+        <v>765000</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A64" s="16">
+        <v>64</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E64" s="3">
+        <v>45555</v>
+      </c>
+      <c r="F64" s="3">
+        <v>45560</v>
+      </c>
+      <c r="G64" s="4">
         <v>255000</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="H64" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="16">
+        <v>65</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E65" s="9">
+        <v>45555</v>
+      </c>
+      <c r="F65" s="9">
+        <v>45560</v>
+      </c>
+      <c r="G65" s="10">
+        <v>255000</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A66" s="6"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="5"/>
+    </row>
+    <row r="67" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="5"/>
+    </row>
+    <row r="68" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="5"/>
+    </row>
+    <row r="69" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A69" s="6"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="5"/>
+    </row>
+    <row r="70" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="5"/>
+    </row>
+    <row r="71" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A71" s="6"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="5"/>
+    </row>
+    <row r="72" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A72" s="6"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="5"/>
+    </row>
+    <row r="73" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="5"/>
+    </row>
+    <row r="74" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="5"/>
+    </row>
+    <row r="75" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A75" s="6"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="5"/>
+    </row>
+    <row r="76" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="5"/>
+    </row>
+    <row r="77" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A77" s="6"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="5"/>
+    </row>
+    <row r="78" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A78" s="6"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="5"/>
+    </row>
+    <row r="79" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
